--- a/data_year/zb/工业/按行业分规模以上工业企业主要经济指标(2000-2002)/企业单位数.xlsx
+++ b/data_year/zb/工业/按行业分规模以上工业企业主要经济指标(2000-2002)/企业单位数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,387 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>6406</v>
-      </c>
-      <c r="C2" t="n">
-        <v>6850</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1860</v>
-      </c>
-      <c r="E2" t="n">
-        <v>20</v>
-      </c>
-      <c r="F2" t="n">
-        <v>3753</v>
-      </c>
-      <c r="G2" t="n">
-        <v>11430</v>
-      </c>
-      <c r="H2" t="n">
-        <v>834</v>
-      </c>
-      <c r="I2" t="n">
-        <v>3301</v>
-      </c>
-      <c r="J2" t="n">
-        <v>3703</v>
-      </c>
-      <c r="K2" t="n">
-        <v>6230</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1498</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1879</v>
-      </c>
-      <c r="N2" t="n">
-        <v>9338</v>
-      </c>
-      <c r="O2" t="n">
-        <v>2538</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1439</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>7064</v>
-      </c>
-      <c r="R2" t="n">
-        <v>2552</v>
-      </c>
-      <c r="S2" t="n">
-        <v>498</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1783</v>
-      </c>
-      <c r="U2" t="n">
-        <v>343</v>
-      </c>
-      <c r="V2" t="n">
-        <v>300</v>
-      </c>
-      <c r="W2" t="n">
-        <v>2666</v>
-      </c>
-      <c r="X2" t="n">
-        <v>4825</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>4459</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>7845</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>3164</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>993</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>82</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>10968</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>2408</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>162885</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>4672</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>8376</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>14540</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>1770</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>4691</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>10676</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>3409</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>2997</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>6391</v>
-      </c>
-      <c r="C3" t="n">
-        <v>7114</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2018</v>
-      </c>
-      <c r="E3" t="n">
-        <v>20</v>
-      </c>
-      <c r="F3" t="n">
-        <v>4185</v>
-      </c>
-      <c r="G3" t="n">
-        <v>12031</v>
-      </c>
-      <c r="H3" t="n">
-        <v>885</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3488</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3691</v>
-      </c>
-      <c r="K3" t="n">
-        <v>6884</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1625</v>
-      </c>
-      <c r="M3" t="n">
-        <v>2024</v>
-      </c>
-      <c r="N3" t="n">
-        <v>10027</v>
-      </c>
-      <c r="O3" t="n">
-        <v>2823</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1310</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>8037</v>
-      </c>
-      <c r="R3" t="n">
-        <v>2808</v>
-      </c>
-      <c r="S3" t="n">
-        <v>431</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1777</v>
-      </c>
-      <c r="U3" t="n">
-        <v>320</v>
-      </c>
-      <c r="V3" t="n">
-        <v>320</v>
-      </c>
-      <c r="W3" t="n">
-        <v>2603</v>
-      </c>
-      <c r="X3" t="n">
-        <v>4873</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>4824</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>8675</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>3539</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>1027</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>90</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>12065</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>2398</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>171000</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>5027</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>9274</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>14707</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>1749</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>4563</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>10381</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>3307</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>3176</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>6546</v>
-      </c>
-      <c r="C4" t="n">
-        <v>7470</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2146</v>
-      </c>
-      <c r="E4" t="n">
-        <v>17</v>
-      </c>
-      <c r="F4" t="n">
-        <v>4582</v>
-      </c>
-      <c r="G4" t="n">
-        <v>12637</v>
-      </c>
-      <c r="H4" t="n">
-        <v>909</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3681</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3806</v>
-      </c>
-      <c r="K4" t="n">
-        <v>7665</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1767</v>
-      </c>
-      <c r="M4" t="n">
-        <v>2327</v>
-      </c>
-      <c r="N4" t="n">
-        <v>10767</v>
-      </c>
-      <c r="O4" t="n">
-        <v>2942</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1291</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>9061</v>
-      </c>
-      <c r="R4" t="n">
-        <v>3033</v>
-      </c>
-      <c r="S4" t="n">
-        <v>383</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1822</v>
-      </c>
-      <c r="U4" t="n">
-        <v>287</v>
-      </c>
-      <c r="V4" t="n">
-        <v>329</v>
-      </c>
-      <c r="W4" t="n">
-        <v>2812</v>
-      </c>
-      <c r="X4" t="n">
-        <v>4946</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>5320</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>9385</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>3932</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>1144</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>84</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>13248</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>2420</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>182000</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>5285</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>10039</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>15305</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>1711</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>4615</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>10413</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>3287</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>3333</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>696</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
